--- a/story/Activity Story 活动剧情/act9d0 Darknights Memoir 生于黑夜 闇夜に生きる/level_act9d0_02_beg.xlsx
+++ b/story/Activity Story 活动剧情/act9d0 Darknights Memoir 生于黑夜 闇夜に生きる/level_act9d0_02_beg.xlsx
@@ -1656,7 +1656,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="살카즈 전사"]  외드레르는랑 그 팀원들은? 그자가 여기 책임자……
+    <t xml:space="preserve">[name="살카즈 전사"]  외드레르랑 그 팀원들은? 그자가 여기 책임자……
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act9d0 Darknights Memoir 生于黑夜 闇夜に生きる/level_act9d0_02_beg.xlsx
+++ b/story/Activity Story 活动剧情/act9d0 Darknights Memoir 生于黑夜 闇夜に生きる/level_act9d0_02_beg.xlsx
@@ -1388,7 +1388,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  As far as I can tell, “Miss Ines” isn’t so good at close combat.
+    <t xml:space="preserve">[name="W"]  As far as I can tell, 'Miss Ines' isn’t so good at close combat.
 </t>
   </si>
   <si>
@@ -1408,7 +1408,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  —Oh, but you, a “Sarkaz mercenary?”
+    <t xml:space="preserve">[name="W"]  —Oh, but you, a 'Sarkaz mercenary?'
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act9d0 Darknights Memoir 生于黑夜 闇夜に生きる/level_act9d0_02_beg.xlsx
+++ b/story/Activity Story 活动剧情/act9d0 Darknights Memoir 生于黑夜 闇夜に生きる/level_act9d0_02_beg.xlsx
@@ -1096,15 +1096,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  Tsk... Those are the same goons as last time— How’d they find us here?!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  Hurry up and retreat! Don’t waste time!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  They’ve got us surrounded. And outnumbered.
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  Tsk... Those are the same goons as last time— How'd they find us here?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  Hurry up and retreat! Don't waste time!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  They've got us surrounded. And outnumbered.
 </t>
   </si>
   <si>
@@ -1112,7 +1112,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  Their scouts took out all our sentries. We’re in the dark here...
+    <t xml:space="preserve">[name="W"]  Their scouts took out all our sentries. We're in the dark here...
 </t>
   </si>
   <si>
@@ -1120,11 +1120,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  Hey, you... You’re with Hoederer... What are you doing here?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  Where’s Hoederer? And his men? He’s supposed to be—
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  Hey, you... You're with Hoederer... What are you doing here?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  Where's Hoederer? And his men? He's supposed to be—
 </t>
   </si>
   <si>
@@ -1144,23 +1144,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  Don’t make it sound so bad.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  We’re headed out on a long, long trip. And wouldn’t you know it? Some guests showed up just as we’re leaving. So someone’s gotta stay behind to hold the fort.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  Now if we leave some snacks out for our guests like a good host, maybe that’ll get them to stop chasing us?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  Gotta say, I appreciate all you’re doing for us~
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  Damn you... You knew they were coming the whole time... And you’re just going to leave us here to die—?!
+    <t xml:space="preserve">[name="W"]  Don't make it sound so bad.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  We're headed out on a long, long trip. And wouldn't you know it? Some guests showed up just as we're leaving. So someone's gotta stay behind to hold the fort.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  Now if we leave some snacks out for our guests like a good host, maybe that'll get them to stop chasing us?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  Gotta say, I appreciate all you're doing for us~
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  Damn you... You knew they were coming the whole time... And you're just going to leave us here to die—?!
 </t>
   </si>
   <si>
@@ -1176,11 +1176,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  I ordered you to help the teams that didn’t have time to escape, but...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoederer"]  ...Why didn’t anyone else make it out?
+    <t xml:space="preserve">[name="Hoederer"]  I ordered you to help the teams that didn't have time to escape, but...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoederer"]  ...Why didn't anyone else make it out?
 </t>
   </si>
   <si>
@@ -1188,7 +1188,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  Don’t worry. I left them a little gift... So they were more than happy to help us hold off the bad guys.
+    <t xml:space="preserve">[name="W"]  Don't worry. I left them a little gift... So they were more than happy to help us hold off the bad guys.
 </t>
   </si>
   <si>
@@ -1196,7 +1196,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  No need to lie about it. Nobody’s going to blame you for sacrificing others to save your own squad.
+    <t xml:space="preserve">[name="Ines"]  No need to lie about it. Nobody's going to blame you for sacrificing others to save your own squad.
 </t>
   </si>
   <si>
@@ -1208,27 +1208,27 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  You can’t fool my eyes, W. You’re on thin ice here.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ines"]  Don’t forget how green you are.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  ...I’ll be sure to reflect upon my actions, Captain Ines.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  Because we’ll be working together... for a very long time.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ines"]  So, what’s the plan now?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoederer"]  No harm, no foul. What’s done is done, and it was probably going to turn out like this anyway.
+    <t xml:space="preserve">[name="Ines"]  You can't fool my eyes, W. You're on thin ice here.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ines"]  Don't forget how green you are.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  ...I'll be sure to reflect upon my actions, Captain Ines.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  Because we'll be working together... for a very long time.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ines"]  So, what's the plan now?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoederer"]  No harm, no foul. What's done is done, and it was probably going to turn out like this anyway.
 </t>
   </si>
   <si>
@@ -1252,11 +1252,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  Let’s talk work first. Ines, you and W split up and lead your teams away. Messengers stay radio silent, then regroup at the rendezvous point.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoederer"]  ...I’ll catch up later.
+    <t xml:space="preserve">[name="Hoederer"]  Let's talk work first. Ines, you and W split up and lead your teams away. Messengers stay radio silent, then regroup at the rendezvous point.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoederer"]  ...I'll catch up later.
 </t>
   </si>
   <si>
@@ -1268,7 +1268,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  I don’t care what kind of mischief you get up to, how one of you exploits the other or whatever, but I won’t stand for you actually, directly fighting.
+    <t xml:space="preserve">[name="Hoederer"]  I don't care what kind of mischief you get up to, how one of you exploits the other or whatever, but I won't stand for you actually, directly fighting.
 </t>
   </si>
   <si>
@@ -1284,7 +1284,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  I really hope it doesn’t come to that. But it’s not like I could stop it either.
+    <t xml:space="preserve">[name="Hoederer"]  I really hope it doesn't come to that. But it's not like I could stop it either.
 </t>
   </si>
   <si>
@@ -1300,7 +1300,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">...Nobody says W isn’t a great fighter. But there’s a lot she’s missing.
+    <t xml:space="preserve">...Nobody says W isn't a great fighter. But there's a lot she's missing.
 </t>
   </si>
   <si>
@@ -1312,7 +1312,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  It’s not even dark out. And you still gotta hide over here by the fire?
+    <t xml:space="preserve">[name="W"]  It's not even dark out. And you still gotta hide over here by the fire?
 </t>
   </si>
   <si>
@@ -1320,7 +1320,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  I definitely don’t like people bothering me.
+    <t xml:space="preserve">[name="Ines"]  I definitely don't like people bothering me.
 </t>
   </si>
   <si>
@@ -1336,19 +1336,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  He doesn’t know anything about it.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ines"]  ...Then it must’ve been a coincidence. All mercs are a pain in the ass to deal with. You cross their path, and they’re gonna give you shit.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  Oh, that’s all? Here I was worried Hoederer sold out my position.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ines"]  You think that’s what he should’ve done?
+    <t xml:space="preserve">[name="W"]  He doesn't know anything about it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ines"]  ...Then it must've been a coincidence. All mercs are a pain in the ass to deal with. You cross their path, and they're gonna give you shit.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  Oh, that's all? Here I was worried Hoederer sold out my position.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ines"]  You think that's what he should've done?
 </t>
   </si>
   <si>
@@ -1356,11 +1356,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  How do you know we’re not lying to you?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  You could’ve killed me a long time ago. Doing it now wouldn’t help much, would it?
+    <t xml:space="preserve">[name="Ines"]  How do you know we're not lying to you?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  You could've killed me a long time ago. Doing it now wouldn't help much, would it?
 </t>
   </si>
   <si>
@@ -1372,15 +1372,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  Huh? After all we’ve been through, you’re giving me the job interview now?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ines"]  Hoederer never asks about his people’s pasts. But I’m not Hoederer.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  Yeah you’re a whole different species from us.
+    <t xml:space="preserve">[name="W"]  Huh? After all we've been through, you're giving me the job interview now?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ines"]  Hoederer never asks about his people's pasts. But I'm not Hoederer.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  Yeah you're a whole different species from us.
 </t>
   </si>
   <si>
@@ -1388,7 +1388,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  As far as I can tell, 'Miss Ines' isn’t so good at close combat.
+    <t xml:space="preserve">[name="W"]  As far as I can tell, 'Miss Ines' isn't so good at close combat.
 </t>
   </si>
   <si>
@@ -1396,7 +1396,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  A lesson for you: If you want to live a little longer, don’t put all your eggs in one basket.
+    <t xml:space="preserve">[name="Ines"]  A lesson for you: If you want to live a little longer, don't put all your eggs in one basket.
 </t>
   </si>
   <si>
@@ -1416,7 +1416,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  I’m still pretty sure I’ve got you beat at close range, but... Hmm, I admit I got a little careless.
+    <t xml:space="preserve">[name="W"]  I'm still pretty sure I've got you beat at close range, but... Hmm, I admit I got a little careless.
 </t>
   </si>
   <si>
@@ -1428,11 +1428,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  I’d rather talk about you. High-profile mercenaries like you are pretty much all dead by now.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ines"]  You’ve made such big waves in such a short time, but I never heard anything about you before you joined us. That’s pretty suspicious.
+    <t xml:space="preserve">[name="Ines"]  I'd rather talk about you. High-profile mercenaries like you are pretty much all dead by now.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ines"]  You've made such big waves in such a short time, but I never heard anything about you before you joined us. That's pretty suspicious.
 </t>
   </si>
   <si>
@@ -1452,11 +1452,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  You dropped that bomb pretty smoothly. Why’d you change your mind?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  Hmm... I figured I’d get what I want easier this way.
+    <t xml:space="preserve">[name="Ines"]  You dropped that bomb pretty smoothly. Why'd you change your mind?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  Hmm... I figured I'd get what I want easier this way.
 </t>
   </si>
   <si>
@@ -1468,7 +1468,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  You’re shook. How funny. Why not make something up to dodge the question?
+    <t xml:space="preserve">[name="Ines"]  You're shook. How funny. Why not make something up to dodge the question?
 </t>
   </si>
   <si>
@@ -1488,11 +1488,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  ...From the east. Something’s coming.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ines"]  There’s more than one squad, but only one of them’s the real deal. Hmph, they sure are cautious...
+    <t xml:space="preserve">[name="Ines"]  ...From the east. Something's coming.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ines"]  There's more than one squad, but only one of them's the real deal. Hmph, they sure are cautious...
 </t>
   </si>
   <si>
@@ -1504,7 +1504,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  We’re heading into uncharted territory now.
+    <t xml:space="preserve">[name="Ines"]  We're heading into uncharted territory now.
 </t>
   </si>
   <si>
@@ -1520,7 +1520,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  I don’t remember anyone putting you in charge. Don’t give me orders.
+    <t xml:space="preserve">[name="Ines"]  I don't remember anyone putting you in charge. Don't give me orders.
 </t>
   </si>
   <si>
@@ -1528,11 +1528,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  You just keep guarding this campfire over here. I’ll head down to the camp and check on the situation.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ines"]  That’s... Babel’s...
+    <t xml:space="preserve">[name="W"]  You just keep guarding this campfire over here. I'll head down to the camp and check on the situation.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ines"]  That's... Babel's...
 </t>
   </si>
   <si>
@@ -1540,7 +1540,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  But it’s time for us to really get to work now.
+    <t xml:space="preserve">[name="Hoederer"]  But it's time for us to really get to work now.
 </t>
   </si>
   <si>
@@ -1560,7 +1560,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  C’mon, we were just sparring a little, as a warm up. Definitely not fighting or anything.
+    <t xml:space="preserve">[name="W"]  C'mon, we were just sparring a little, as a warm up. Definitely not fighting or anything.
 </t>
   </si>
   <si>
@@ -1568,11 +1568,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  Don’t worry. Next time, I’ll bury you where they’ll never find your body.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoederer"]  Just to reiterate, our job is simple. Don’t let anyone near our mark.
+    <t xml:space="preserve">[name="Ines"]  Don't worry. Next time, I'll bury you where they'll never find your body.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoederer"]  Just to reiterate, our job is simple. Don't let anyone near our mark.
 </t>
   </si>
   <si>
@@ -1584,11 +1584,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  So, where’s our destination?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoederer"]  Can’t disclose that. This escort task is to be carried out in stages, and our mapped route has already been passed out. After we reach our destination in three days, someone will connect with us.
+    <t xml:space="preserve">[name="W"]  So, where's our destination?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoederer"]  Can't disclose that. This escort task is to be carried out in stages, and our mapped route has already been passed out. After we reach our destination in three days, someone will connect with us.
 </t>
   </si>
   <si>
@@ -1600,11 +1600,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  I also can’t— Wait, Ines.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoederer"]  It’s a breach of contract to use your Arts to probe the transport team. Don’t underestimate them! Stop right now!
+    <t xml:space="preserve">[name="Hoederer"]  I also can't— Wait, Ines.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoederer"]  It's a breach of contract to use your Arts to probe the transport team. Don't underestimate them! Stop right now!
 </t>
   </si>
   <si>
@@ -1616,11 +1616,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  But this huge thing that they’re transporting... I’m only seeing a shadow...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ines"]  ...A landship? No, it’s...
+    <t xml:space="preserve">[name="Ines"]  But this huge thing that they're transporting... I'm only seeing a shadow...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ines"]  ...A landship? No, it's...
 </t>
   </si>
   <si>
